--- a/mageproductcsv/resources/delonghi-milk-foamer.xlsx
+++ b/mageproductcsv/resources/delonghi-milk-foamer.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16640" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -117,9 +117,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0\ [$€-1];[Red]\-#,##0\ [$€-1]"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -160,7 +157,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -497,7 +494,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
